--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mmp9-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Mmp9</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.30322694467684</v>
+        <v>0.111437</v>
       </c>
       <c r="H2">
-        <v>2.30322694467684</v>
+        <v>0.334311</v>
       </c>
       <c r="I2">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="J2">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>15.71119133685192</v>
+        <v>0.906120323258</v>
       </c>
       <c r="R2">
-        <v>15.71119133685192</v>
+        <v>8.155082909321999</v>
       </c>
       <c r="S2">
-        <v>0.008342795963242024</v>
+        <v>0.0003799094767643568</v>
       </c>
       <c r="T2">
-        <v>0.008342795963242024</v>
+        <v>0.0003799094767643568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.30322694467684</v>
+        <v>0.111437</v>
       </c>
       <c r="H3">
-        <v>2.30322694467684</v>
+        <v>0.334311</v>
       </c>
       <c r="I3">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="J3">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>558.9350753720053</v>
+        <v>27.12113573821734</v>
       </c>
       <c r="R3">
-        <v>558.9350753720053</v>
+        <v>244.0902216439561</v>
       </c>
       <c r="S3">
-        <v>0.2967999810167351</v>
+        <v>0.01137109081773404</v>
       </c>
       <c r="T3">
-        <v>0.2967999810167351</v>
+        <v>0.01137109081773404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.30322694467684</v>
+        <v>0.111437</v>
       </c>
       <c r="H4">
-        <v>2.30322694467684</v>
+        <v>0.334311</v>
       </c>
       <c r="I4">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="J4">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>203.4242977271182</v>
+        <v>11.58305578795167</v>
       </c>
       <c r="R4">
-        <v>203.4242977271182</v>
+        <v>104.247502091565</v>
       </c>
       <c r="S4">
-        <v>0.1080202878009887</v>
+        <v>0.004856433026367639</v>
       </c>
       <c r="T4">
-        <v>0.1080202878009887</v>
+        <v>0.00485643302636764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.30322694467684</v>
+        <v>0.111437</v>
       </c>
       <c r="H5">
-        <v>2.30322694467684</v>
+        <v>0.334311</v>
       </c>
       <c r="I5">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="J5">
-        <v>0.4473826878206148</v>
+        <v>0.0181688321901331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>64.44254988611105</v>
+        <v>3.724085169458667</v>
       </c>
       <c r="R5">
-        <v>64.44254988611105</v>
+        <v>33.51676652512801</v>
       </c>
       <c r="S5">
-        <v>0.0342196230396489</v>
+        <v>0.001561398869267059</v>
       </c>
       <c r="T5">
-        <v>0.0342196230396489</v>
+        <v>0.001561398869267059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.84499851728014</v>
+        <v>2.316745</v>
       </c>
       <c r="H6">
-        <v>2.84499851728014</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I6">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="J6">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>19.40682231134623</v>
+        <v>18.83799571333</v>
       </c>
       <c r="R6">
-        <v>19.40682231134623</v>
+        <v>169.54196141997</v>
       </c>
       <c r="S6">
-        <v>0.01030521208526611</v>
+        <v>0.007898214962233727</v>
       </c>
       <c r="T6">
-        <v>0.01030521208526611</v>
+        <v>0.007898214962233729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.84499851728014</v>
+        <v>2.316745</v>
       </c>
       <c r="H7">
-        <v>2.84499851728014</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I7">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="J7">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>690.4093686314229</v>
+        <v>563.8410547290068</v>
       </c>
       <c r="R7">
-        <v>690.4093686314229</v>
+        <v>5074.569492561061</v>
       </c>
       <c r="S7">
-        <v>0.3666141141119119</v>
+        <v>0.236401893415394</v>
       </c>
       <c r="T7">
-        <v>0.3666141141119119</v>
+        <v>0.236401893415394</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.84499851728014</v>
+        <v>2.316745</v>
       </c>
       <c r="H8">
-        <v>2.84499851728014</v>
+        <v>6.950235000000001</v>
       </c>
       <c r="I8">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="J8">
-        <v>0.5526173121793853</v>
+        <v>0.3777250924946823</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>251.2743378371716</v>
+        <v>240.8085876455584</v>
       </c>
       <c r="R8">
-        <v>251.2743378371716</v>
+        <v>2167.277288810025</v>
       </c>
       <c r="S8">
-        <v>0.1334291261832671</v>
+        <v>0.1009639251924594</v>
       </c>
       <c r="T8">
-        <v>0.1334291261832671</v>
+        <v>0.1009639251924594</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.316745</v>
+      </c>
+      <c r="H9">
+        <v>6.950235000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.3777250924946823</v>
+      </c>
+      <c r="J9">
+        <v>0.3777250924946823</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N9">
+        <v>100.256248</v>
+      </c>
+      <c r="O9">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P9">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q9">
+        <v>77.42272042425334</v>
+      </c>
+      <c r="R9">
+        <v>696.8044838182801</v>
+      </c>
+      <c r="S9">
+        <v>0.03246105892459518</v>
+      </c>
+      <c r="T9">
+        <v>0.03246105892459519</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.252651333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.757954</v>
+      </c>
+      <c r="I10">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="J10">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N10">
+        <v>24.393702</v>
+      </c>
+      <c r="O10">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P10">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q10">
+        <v>26.44806911174533</v>
+      </c>
+      <c r="R10">
+        <v>238.032622005708</v>
+      </c>
+      <c r="S10">
+        <v>0.01108889386957253</v>
+      </c>
+      <c r="T10">
+        <v>0.01108889386957253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3.252651333333333</v>
+      </c>
+      <c r="H11">
+        <v>9.757954</v>
+      </c>
+      <c r="I11">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="J11">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N11">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O11">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P11">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q11">
+        <v>791.6185676249983</v>
+      </c>
+      <c r="R11">
+        <v>7124.567108624985</v>
+      </c>
+      <c r="S11">
+        <v>0.3319022740181183</v>
+      </c>
+      <c r="T11">
+        <v>0.3319022740181184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.252651333333333</v>
+      </c>
+      <c r="H12">
+        <v>9.757954</v>
+      </c>
+      <c r="I12">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="J12">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N12">
+        <v>311.827915</v>
+      </c>
+      <c r="O12">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P12">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q12">
+        <v>338.0891611651011</v>
+      </c>
+      <c r="R12">
+        <v>3042.80245048591</v>
+      </c>
+      <c r="S12">
+        <v>0.1417507951439713</v>
+      </c>
+      <c r="T12">
+        <v>0.1417507951439714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.252651333333333</v>
+      </c>
+      <c r="H13">
+        <v>9.757954</v>
+      </c>
+      <c r="I13">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="J13">
+        <v>0.5303164680343693</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N13">
+        <v>100.256248</v>
+      </c>
+      <c r="O13">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P13">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q13">
+        <v>108.6995395773991</v>
+      </c>
+      <c r="R13">
+        <v>978.295856196592</v>
+      </c>
+      <c r="S13">
+        <v>0.04557450500270698</v>
+      </c>
+      <c r="T13">
+        <v>0.04557450500270699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2.84499851728014</v>
-      </c>
-      <c r="H9">
-        <v>2.84499851728014</v>
-      </c>
-      <c r="I9">
-        <v>0.5526173121793853</v>
-      </c>
-      <c r="J9">
-        <v>0.5526173121793853</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>27.979244526923</v>
-      </c>
-      <c r="N9">
-        <v>27.979244526923</v>
-      </c>
-      <c r="O9">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="P9">
-        <v>0.07648848283858896</v>
-      </c>
-      <c r="Q9">
-        <v>79.60090919371441</v>
-      </c>
-      <c r="R9">
-        <v>79.60090919371441</v>
-      </c>
-      <c r="S9">
-        <v>0.04226885979894007</v>
-      </c>
-      <c r="T9">
-        <v>0.04226885979894007</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4525823333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.357747</v>
+      </c>
+      <c r="I14">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="J14">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>8.131233999999999</v>
+      </c>
+      <c r="N14">
+        <v>24.393702</v>
+      </c>
+      <c r="O14">
+        <v>0.02090995573015822</v>
+      </c>
+      <c r="P14">
+        <v>0.02090995573015823</v>
+      </c>
+      <c r="Q14">
+        <v>3.680052856599333</v>
+      </c>
+      <c r="R14">
+        <v>33.120475709394</v>
+      </c>
+      <c r="S14">
+        <v>0.001542937421587609</v>
+      </c>
+      <c r="T14">
+        <v>0.001542937421587609</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4525823333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.357747</v>
+      </c>
+      <c r="I15">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="J15">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>243.3763986666667</v>
+      </c>
+      <c r="N15">
+        <v>730.1291960000001</v>
+      </c>
+      <c r="O15">
+        <v>0.625857000534647</v>
+      </c>
+      <c r="P15">
+        <v>0.6258570005346471</v>
+      </c>
+      <c r="Q15">
+        <v>110.1478583868236</v>
+      </c>
+      <c r="R15">
+        <v>991.3307254814122</v>
+      </c>
+      <c r="S15">
+        <v>0.04618174228340062</v>
+      </c>
+      <c r="T15">
+        <v>0.04618174228340063</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4525823333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.357747</v>
+      </c>
+      <c r="I16">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="J16">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>103.9426383333333</v>
+      </c>
+      <c r="N16">
+        <v>311.827915</v>
+      </c>
+      <c r="O16">
+        <v>0.2672947262403034</v>
+      </c>
+      <c r="P16">
+        <v>0.2672947262403035</v>
+      </c>
+      <c r="Q16">
+        <v>47.04260178972278</v>
+      </c>
+      <c r="R16">
+        <v>423.383416107505</v>
+      </c>
+      <c r="S16">
+        <v>0.01972357287750503</v>
+      </c>
+      <c r="T16">
+        <v>0.01972357287750503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.4525823333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.357747</v>
+      </c>
+      <c r="I17">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="J17">
+        <v>0.07378960728081531</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>33.41874933333333</v>
+      </c>
+      <c r="N17">
+        <v>100.256248</v>
+      </c>
+      <c r="O17">
+        <v>0.08593831749489127</v>
+      </c>
+      <c r="P17">
+        <v>0.08593831749489128</v>
+      </c>
+      <c r="Q17">
+        <v>15.12473555036178</v>
+      </c>
+      <c r="R17">
+        <v>136.122619953256</v>
+      </c>
+      <c r="S17">
+        <v>0.006341354698322046</v>
+      </c>
+      <c r="T17">
+        <v>0.006341354698322047</v>
       </c>
     </row>
   </sheetData>
